--- a/Income/BA_inc.xlsx
+++ b/Income/BA_inc.xlsx
@@ -2034,16 +2034,16 @@
         <v>0.0148</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-0.0127</v>
+        <v>-0.0125</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0188</v>
+        <v>0.0189</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0053</v>
+        <v>0.0054</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.059</v>
+        <v>0.0591</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1331</v>
@@ -2418,10 +2418,10 @@
         <v>-0.0734</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.0428</v>
+        <v>-0.0427</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.0484</v>
+        <v>-0.0483</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>-0.0083</v>
@@ -4125,16 +4125,16 @@
         <v>-0.0719</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-0.0789</v>
+        <v>-0.078</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-0.0454</v>
+        <v>-0.0446</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>-0.0487</v>
+        <v>-0.0479</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.0039</v>
+        <v>0.0047</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.077</v>
